--- a/main/Cases/ExampleBatteryPV.xlsx
+++ b/main/Cases/ExampleBatteryPV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvalois\ownCloud\AGISTIN\UPC\AGISTIN_UPC\agistin\main\Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvalois\Desktop\CurrentProjects\AGISTIN\GitHub Repositories\Uni-Kassel_Task-3.2\agistin\main\Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCBA235-7558-4CF8-9D8C-BAF59FC2C217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD04A87-B2EB-45C3-8685-0B684E910F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-3240" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{A5667F64-109C-47C3-884E-1862F3FE77BD}"/>
+    <workbookView xWindow="28680" yWindow="-5355" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{A5667F64-109C-47C3-884E-1862F3FE77BD}"/>
   </bookViews>
   <sheets>
     <sheet name="EB" sheetId="11" r:id="rId1"/>
@@ -526,7 +526,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +556,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="C2" s="1">
         <v>100000</v>
@@ -578,7 +578,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
